--- a/src/main/resources/template/excel/export/diffSearchDetail.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchDetail.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="T3")</t>
+          <t>jx:area(lastCell="V3")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="V3")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -219,13 +219,29 @@
   </si>
   <si>
     <t>${obj.snapshootSalePrice}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原库存不含税成本价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏金额（不含税成本价）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedSnapshootCostPrice}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedProfitLossCostAmount}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -666,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EN75"/>
+  <dimension ref="A1:EP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,16 +697,19 @@
     <col min="5" max="6" width="14.25" style="3" customWidth="1"/>
     <col min="7" max="9" width="15.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="3" customWidth="1"/>
-    <col min="11" max="15" width="16.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="18.375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="18.25" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="3"/>
+    <col min="11" max="13" width="16.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="21.875" style="3" customWidth="1"/>
+    <col min="15" max="16" width="16.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18.375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="15.625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.25" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:146" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -713,8 +732,8 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -837,8 +856,10 @@
       <c r="EL1" s="3"/>
       <c r="EM1" s="3"/>
       <c r="EN1" s="3"/>
+      <c r="EO1" s="3"/>
+      <c r="EP1" s="3"/>
     </row>
-    <row r="2" spans="1:144" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:146" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -879,28 +900,32 @@
         <v>19</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -1023,8 +1048,10 @@
       <c r="EL2" s="3"/>
       <c r="EM2" s="3"/>
       <c r="EN2" s="3"/>
+      <c r="EO2" s="3"/>
+      <c r="EP2" s="3"/>
     </row>
-    <row r="3" spans="1:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:146" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1065,40 +1092,46 @@
         <v>24</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:146" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1193,7 @@
     <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
